--- a/biology/Zoologie/Ariane_saphirine/Ariane_saphirine.xlsx
+++ b/biology/Zoologie/Ariane_saphirine/Ariane_saphirine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazilia lactea
 L'Ariane saphirine (Chionomesa lactea, Amazilia lactea ou Polyerata lactea) est une espèce d’oiseaux appartenant à la famille des Trochilidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Bolivie, au Brésil, au Pérou et au Venezuela. Sa présence en Équateur n'est pas attestée.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans les forêts tropicales et subtropicales humides de basse altitude mais aussi dans les anciennes forêts fortement dégradées.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce mesure 8 à 11 cm pour une masse moyenne de 4 g chez le mâle et de 3,6 g chez la femelle.
 </t>
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau consomme le nectar de nombreuses fleurs autochtones et introduites comme Kalanchoe delagoensis. Des insectes sont également capturés en vol.
 </t>
@@ -636,7 +656,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cet oiseau est représenté par trois sous-espèces :
 Amazilia lactea bartletti  (Gould), 1866 ;
@@ -669,7 +691,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">del Hoyo J., Elliott A. &amp; Sargatal J. (1999) Handbook of the Birds of the World, Volume 5, Barn-owls to Hummingbirds. BirdLife International, Lynx Edicions, Barcelona, 759 p.
 (en) Référence Congrès ornithologique international : Amazilia lactea dans l'ordre Apodiformes (consulté le 13 mai 2015)
